--- a/ESPN sports website/IPL/Punjab Kings/.xlsx
+++ b/ESPN sports website/IPL/Punjab Kings/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>May 07, 2022</v>
+        <v>May 16, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Royals won by 6 wickets (with 2 balls remaining)</v>
+        <v>Capitals won by 17 runs</v>
       </c>
     </row>
   </sheetData>
